--- a/results/Gaia_homogeneous_target_selection_M_earth_1_5_2025.07.23.xlsx
+++ b/results/Gaia_homogeneous_target_selection_M_earth_1_5_2025.07.23.xlsx
@@ -847,7 +847,7 @@
         </is>
       </c>
       <c r="AC3" t="n">
-        <v>3.652170961142576</v>
+        <v>3.652170961142577</v>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="AC9" t="n">
-        <v>5.952271867918356</v>
+        <v>5.952271867918357</v>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="AC10" t="n">
-        <v>5.947768672408886</v>
+        <v>5.947768672408884</v>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="AC12" t="n">
-        <v>7.478346136538076</v>
+        <v>7.478346136538074</v>
       </c>
     </row>
     <row r="13">
@@ -1953,7 +1953,7 @@
         </is>
       </c>
       <c r="AC13" t="n">
-        <v>6.753585334578519</v>
+        <v>6.753585334578522</v>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="AC16" t="n">
-        <v>7.435229060298578</v>
+        <v>7.435229060298576</v>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
@@ -2404,7 +2404,7 @@
         </is>
       </c>
       <c r="AC17" t="n">
-        <v>7.228567098899185</v>
+        <v>7.228567098899183</v>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
@@ -2636,7 +2636,7 @@
         </is>
       </c>
       <c r="AC19" t="n">
-        <v>8.791104886960108</v>
+        <v>8.791104886960111</v>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="AC22" t="n">
-        <v>8.196488023769632</v>
+        <v>8.196488023769628</v>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
@@ -3079,7 +3079,7 @@
         </is>
       </c>
       <c r="AC23" t="n">
-        <v>5.105783367734122</v>
+        <v>5.105783367734121</v>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         </is>
       </c>
       <c r="AC24" t="n">
-        <v>8.811567976359873</v>
+        <v>8.811567976359871</v>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         </is>
       </c>
       <c r="AC25" t="n">
-        <v>8.607142418062876</v>
+        <v>8.607142418062878</v>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="AC26" t="n">
-        <v>8.699460211492761</v>
+        <v>8.699460211492765</v>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         </is>
       </c>
       <c r="AC28" t="n">
-        <v>9.197515891787265</v>
+        <v>9.197515891787267</v>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         </is>
       </c>
       <c r="AC29" t="n">
-        <v>7.601527372616971</v>
+        <v>7.601527372616974</v>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
@@ -3886,7 +3886,7 @@
         </is>
       </c>
       <c r="AC30" t="n">
-        <v>8.891570979811476</v>
+        <v>8.89157097981148</v>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
@@ -4105,7 +4105,7 @@
         </is>
       </c>
       <c r="AC32" t="n">
-        <v>9.893947947441868</v>
+        <v>9.893947947441871</v>
       </c>
       <c r="AD32" t="inlineStr">
         <is>
@@ -4554,7 +4554,7 @@
         </is>
       </c>
       <c r="AC36" t="n">
-        <v>6.74858017749629</v>
+        <v>6.748580177496287</v>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
@@ -4670,7 +4670,7 @@
         </is>
       </c>
       <c r="AC37" t="n">
-        <v>8.744719768346879</v>
+        <v>8.744719768346878</v>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
@@ -5801,7 +5801,7 @@
         </is>
       </c>
       <c r="AC47" t="n">
-        <v>7.713318653486467</v>
+        <v>7.713318653486466</v>
       </c>
       <c r="AD47" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         </is>
       </c>
       <c r="AC112" t="n">
-        <v>16.16961333282446</v>
+        <v>16.16961333282445</v>
       </c>
       <c r="AD112" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         </is>
       </c>
       <c r="AC128" t="n">
-        <v>16.95317213092453</v>
+        <v>16.95317213092454</v>
       </c>
       <c r="AD128" t="inlineStr">
         <is>
